--- a/public/downloadfile/客户导入模板.xlsx
+++ b/public/downloadfile/客户导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14370"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="sheet-1" sheetId="1" r:id="rId1"/>
@@ -14,30 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>客户姓名</t>
   </si>
   <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>员工数量</t>
+    <t>联系人</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>年收入</t>
-  </si>
-  <si>
-    <t>货币</t>
+    <t>手机号</t>
   </si>
   <si>
     <t>电话</t>
   </si>
   <si>
-    <t>传真</t>
+    <t>邮箱</t>
   </si>
   <si>
     <t>地址</t>
@@ -49,7 +43,10 @@
     <t>城市</t>
   </si>
   <si>
-    <t>邮政编码</t>
+    <t>客户级别</t>
+  </si>
+  <si>
+    <t>客户来源</t>
   </si>
   <si>
     <t>备注</t>
@@ -58,25 +55,19 @@
     <t>Customername</t>
   </si>
   <si>
-    <t>StockCode</t>
-  </si>
-  <si>
-    <t>EmployeeQty</t>
+    <t>ContactPerson</t>
   </si>
   <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>AnnualIncome</t>
-  </si>
-  <si>
-    <t>Currency</t>
+    <t>MobilePhone</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Fax</t>
+    <t>Email</t>
   </si>
   <si>
     <t>Address</t>
@@ -88,7 +79,10 @@
     <t>City</t>
   </si>
   <si>
-    <t>PostalCode</t>
+    <t>CustomerLevel</t>
+  </si>
+  <si>
+    <t>CustomerOrigin</t>
   </si>
   <si>
     <t>Remark</t>
@@ -97,13 +91,16 @@
     <t>雅旭科技</t>
   </si>
   <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>人民币</t>
-  </si>
-  <si>
-    <t>0592-52147852</t>
+    <t>林立娟</t>
+  </si>
+  <si>
+    <t>文化传媒</t>
+  </si>
+  <si>
+    <t>0592-5214785</t>
+  </si>
+  <si>
+    <t>52147852@qq.ocm</t>
   </si>
   <si>
     <t>集美学村</t>
@@ -113,18 +110,53 @@
   </si>
   <si>
     <t>厦门市</t>
+  </si>
+  <si>
+    <t>重点客户</t>
+  </si>
+  <si>
+    <t>转介绍</t>
+  </si>
+  <si>
+    <t>需要根据拜访</t>
+  </si>
+  <si>
+    <t>立林集团</t>
+  </si>
+  <si>
+    <t>刘鹏</t>
+  </si>
+  <si>
+    <t>金融业</t>
+  </si>
+  <si>
+    <t>0592-5858696</t>
+  </si>
+  <si>
+    <t>369854845@qq.ocm</t>
+  </si>
+  <si>
+    <t>杏林华丽街道5号</t>
+  </si>
+  <si>
+    <t>VIP客户</t>
+  </si>
+  <si>
+    <t>邮件咨询</t>
+  </si>
+  <si>
+    <t>电话预约上门</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -145,6 +177,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -159,53 +244,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,63 +283,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,12 +343,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,19 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,37 +457,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,60 +505,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,25 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,17 +537,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +580,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,21 +610,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -605,88 +637,88 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -695,58 +727,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,16 +787,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1086,152 +1118,188 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="16.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.0909090909091" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.2727272727273" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5454545454545" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3636363636364" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.9090909090909" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8181818181818" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8181818181818" style="1" customWidth="1"/>
-    <col min="13" max="16377" width="9.13636363636364" style="1" customWidth="1"/>
-    <col min="16378" max="16378" width="9.13636363636364" style="1"/>
-    <col min="16379" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.6380952380952" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1809523809524" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3619047619048" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.9047619047619" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8190476190476" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.1428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="16375" width="9.13333333333333" style="1" customWidth="1"/>
+    <col min="16376" max="16376" width="9.13333333333333" style="1"/>
+    <col min="16377" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1">
-        <v>695874</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1256</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3">
+        <v>18863332525</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2">
-        <v>96546585</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1">
-        <v>96585232</v>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15969698888</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="52147852@qq.ocm"/>
+    <hyperlink ref="F4" r:id="rId2" display="369854845@qq.ocm" tooltip="mailto:369854845@qq.ocm"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
